--- a/projects.xlsx
+++ b/projects.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +517,56 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dash1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SrDev1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dash1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SrDev1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,10 +458,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Deadline</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Last Updated</t>
         </is>
@@ -470,62 +480,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Feature1</t>
+          <t xml:space="preserve">Project Tracker </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dev1</t>
+          <t>Solventek Task 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45855</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-06-17</t>
+        <v>45814</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Feature2</t>
+          <t>PDF Report Generator</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dev2</t>
+          <t>Solventek Task 3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45825</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-06-17</t>
+        <v>45834</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dash1</t>
+          <t>Web Scraper NBA Stats</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SrDev1</t>
+          <t>Solventek Task 4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -534,36 +556,141 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-06-17</t>
+        <v>45841</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45850</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dash1</t>
+          <t>Email Bot</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SrDev1</t>
+          <t>Solventek Task 5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>45838</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-06-17</t>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45851</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lead Generation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Misc Task 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NLP Chat Bot</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Misc Task 2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BI Dashboard</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Solventek Task 2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>45866</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
